--- a/biology/Médecine/Liste_des_codes_DSM-IV/Liste_des_codes_DSM-IV.xlsx
+++ b/biology/Médecine/Liste_des_codes_DSM-IV/Liste_des_codes_DSM-IV.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F19"/>
+  <dimension ref="A1:H48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le Manuel diagnostique et statistique des troubles mentaux, 4e édition (DSM-IV), est un manuel publié par l'Association américaine de psychiatrie (APA) en 1994 (DSM-IV) et mis à jour en 2000 (Manuel diagnostique et statistique des troubles mentaux, 4e édition, texte révisé abrégé en DSM-IV-TR)[1]. Il inclut tous les actuels troubles reconnus de la santé mentale. Le système de codification utilisé dans le DSM est différent de la Classification internationale des maladies (CIM).
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Manuel diagnostique et statistique des troubles mentaux, 4e édition (DSM-IV), est un manuel publié par l'Association américaine de psychiatrie (APA) en 1994 (DSM-IV) et mis à jour en 2000 (Manuel diagnostique et statistique des troubles mentaux, 4e édition, texte révisé abrégé en DSM-IV-TR). Il inclut tous les actuels troubles reconnus de la santé mentale. Le système de codification utilisé dans le DSM est différent de la Classification internationale des maladies (CIM).
 </t>
         </is>
       </c>
@@ -513,33 +525,208 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Retard mental
-317 Retard mental léger
+          <t>Retard mental</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>317 Retard mental léger
 318.0 Retard mental modéré
 318.1 Retard mental sévère
 318.2 Retard mental profond
-319 Retard mental, sévérité non spécifiée
-Troubles des apprentissages
-315.00 Trouble de la lecture
+319 Retard mental, sévérité non spécifiée</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Liste_des_codes_DSM-IV</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_codes_DSM-IV</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Troubles habituellement diagnostiqués pendant la petite enfance, la deuxième enfance ou l'adolescence</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Troubles des apprentissages</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>315.00 Trouble de la lecture
 315.1 Trouble du calcul
 315.2 Trouble de l'expression écrite
-315.9 Trouble des apprentissages non spécifié
-Trouble des habiletés motrices
-315.4 Trouble de l'acquisition de la coordination
-Troubles de la communication
-315.31 Trouble du langage de type expressif
+315.9 Trouble des apprentissages non spécifié</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Liste_des_codes_DSM-IV</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_codes_DSM-IV</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Troubles habituellement diagnostiqués pendant la petite enfance, la deuxième enfance ou l'adolescence</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Trouble des habiletés motrices</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>315.4 Trouble de l'acquisition de la coordination</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Liste_des_codes_DSM-IV</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_codes_DSM-IV</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Troubles habituellement diagnostiqués pendant la petite enfance, la deuxième enfance ou l'adolescence</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Troubles de la communication</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>315.31 Trouble du langage de type expressif
 315.32 Trouble du langage de type mixte réceptif/expressif (Dysphasie, Aphasie réceptive)
 315.39 Trouble phonologique
 307.0 Bégaiement
-307.9 Trouble de la communication non spécifié
-Troubles envahissants du développement
-299.00 Trouble autistique
+307.9 Trouble de la communication non spécifié</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Liste_des_codes_DSM-IV</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_codes_DSM-IV</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Troubles habituellement diagnostiqués pendant la petite enfance, la deuxième enfance ou l'adolescence</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Troubles envahissants du développement</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>299.00 Trouble autistique
 299.80 Trouble de Rett
 299.10 Trouble désintégratif de l'enfant
 299.80 Trouble d'Asperger
-299.80 Trouble envahissant du développement non spécifié
-Comportements perturbateurs et déficit de l'attention
-Déficit de l'attention/hyperactivité
+299.80 Trouble envahissant du développement non spécifié</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Liste_des_codes_DSM-IV</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_codes_DSM-IV</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Troubles habituellement diagnostiqués pendant la petite enfance, la deuxième enfance ou l'adolescence</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Comportements perturbateurs et déficit de l'attention</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Déficit de l'attention/hyperactivité
 314.01 Type mixte
 314.01 Type hyperactivité-impulsivité prédominante
 314.00 Type inattention prédominante
@@ -549,23 +736,159 @@
 312.82 Début d'adolescence
 312.89 Début non spécifié
 313.81 Trouble oppositionnel avec provocation
-312.9 Comportements perturbateurs et déficit de l'attention non spécifiés
-Trouble de l'alimentation de la première ou deuxième enfance
-307.52 Pica
+312.9 Comportements perturbateurs et déficit de l'attention non spécifiés</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Liste_des_codes_DSM-IV</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_codes_DSM-IV</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Troubles habituellement diagnostiqués pendant la petite enfance, la deuxième enfance ou l'adolescence</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Trouble de l'alimentation de la première ou deuxième enfance</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>307.52 Pica
 307.53 Mérycisme
-307.59 Trouble de l'alimentation de la première ou deuxième enfance
-Vocalisation / mouvements anormaux
-307.23 Syndrome de Gilles de la Tourette
+307.59 Trouble de l'alimentation de la première ou deuxième enfance</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Liste_des_codes_DSM-IV</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_codes_DSM-IV</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Troubles habituellement diagnostiqués pendant la petite enfance, la deuxième enfance ou l'adolescence</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Vocalisation / mouvements anormaux</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>307.23 Syndrome de Gilles de la Tourette
 307.22 Tic moteur ou vocal chronique
 307.21 Tic transitoire
-307.20 Tic non spécifié
-Trouble du contrôle sphinctérien
-Encoprésie
+307.20 Tic non spécifié</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Liste_des_codes_DSM-IV</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_codes_DSM-IV</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Troubles habituellement diagnostiqués pendant la petite enfance, la deuxième enfance ou l'adolescence</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Trouble du contrôle sphinctérien</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Encoprésie
 787.6 Encoprésie, avec constipation et incontinence par débordement
 307.7 Encoprésie, sans constipation et incontinence par débordement
-307.6 Énurésie (non liée à une condition médicale générale)
-Autres troubles de la première enfance, de la deuxième enfance ou de l'adolescence
-309.21 Anxiété de séparation
+307.6 Énurésie (non liée à une condition médicale générale)</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Liste_des_codes_DSM-IV</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_codes_DSM-IV</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Troubles habituellement diagnostiqués pendant la petite enfance, la deuxième enfance ou l'adolescence</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Autres troubles de la première enfance, de la deuxième enfance ou de l'adolescence</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">309.21 Anxiété de séparation
 313.23 Mutisme sélectif
 313.89 Trouble réactionnel de l'attachement de la première ou de la deuxième enfance
 307.3 Mouvements stéréotypés
@@ -575,40 +898,79 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Liste_des_codes_DSM-IV</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Liste_des_codes_DSM-IV</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Liste_des_codes_DSM-IV</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_codes_DSM-IV</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
         <is>
           <t>Delirium, démence, trouble amnésique et autres troubles cognitifs</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Delirium
-293.0 Delirium dû à une affection médicale générale
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Delirium</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>293.0 Delirium dû à une affection médicale générale
 Delirium induit par une substance
 Delirium dû à l'intoxication par une substance
 Delirium dû au sevrage d'une substance
-780.09 Delirium non spécifié
-Démence
-Démence de type Alzheimer, à début précoce
+780.09 Delirium non spécifié</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Liste_des_codes_DSM-IV</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_codes_DSM-IV</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Delirium, démence, trouble amnésique et autres troubles cognitifs</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Démence</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Démence de type Alzheimer, à début précoce
 294.10 Sans perturbation du comportement
 294.11 Avec perturbation du comportement
 Démence de type Alzheimer, à début tardif
@@ -640,43 +1002,113 @@
 Démence due à une autre condition médicale
 294.10 Sans perturbation du comportement
 294.11 Avec perturbation du comportement
-294.8 Démence non spécifiée
-Trouble amnésique
-294.0 Trouble amnésique dû à une affection médicale générale
+294.8 Démence non spécifiée</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Liste_des_codes_DSM-IV</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_codes_DSM-IV</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Delirium, démence, trouble amnésique et autres troubles cognitifs</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Trouble amnésique</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>294.0 Trouble amnésique dû à une affection médicale générale
 Trouble amnésique persistant induit par une substance
-294.8 Trouble amnésique non spécifié
-Autre trouble cognitif
-294.9 Trouble cognitif non spécifié
+294.8 Trouble amnésique non spécifié</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Liste_des_codes_DSM-IV</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_codes_DSM-IV</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Delirium, démence, trouble amnésique et autres troubles cognitifs</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Autre trouble cognitif</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">294.9 Trouble cognitif non spécifié
 Sommaire
 </t>
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Liste_des_codes_DSM-IV</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Liste_des_codes_DSM-IV</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Liste_des_codes_DSM-IV</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_codes_DSM-IV</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
         <is>
           <t>Troubles mentaux dus à une affection médicale générale non spécifié</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr">
         <is>
           <t xml:space="preserve">293.89 Trouble catatonique dû à... [indiquer la condition médicale générale]
 310.1 Modification de la personnalité dû à... [indiquer la condition médicale générale]
@@ -686,34 +1118,39 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Liste_des_codes_DSM-IV</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Liste_des_codes_DSM-IV</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Liste_des_codes_DSM-IV</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_codes_DSM-IV</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
         <is>
           <t>Troubles liés à une substance</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Troubles liés à l'alcool
-Alcool
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Troubles liés à l'alcool</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Alcool
 305.00 Abus
 303.90 Dépendance
 291.89 - Induit(e) par un trouble anxieux
@@ -728,9 +1165,43 @@
 291.0 Delirium dû à une intoxication
 291.9 - Trouble lié non spécifié
 291.81 Sevrage
-291.0 Delirium du sevrage
-Troubles liés à l'utilisation d'amphétamine
-Amphétamine (ou de type amphétamine)
+291.0 Delirium du sevrage</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Liste_des_codes_DSM-IV</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_codes_DSM-IV</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Troubles liés à une substance</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Troubles liés à l'utilisation d'amphétamine</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Amphétamine (ou de type amphétamine)
 305.70 Abus
 304.40 Dépendance
 292.89 - Induit(e) par un trouble anxieux
@@ -742,15 +1213,83 @@
 292.89 Intoxication
 292.81 Delirium dû à une intoxication
 292.9 - Autre trouble lié non spécifié
-292.0 Sevrage
-Troubles liés à la caféine
-Caféine
+292.0 Sevrage</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Liste_des_codes_DSM-IV</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_codes_DSM-IV</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Troubles liés à une substance</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Troubles liés à la caféine</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>Caféine
 292.89 - Induit(e) par un trouble anxieux
 292.89 - Induit(e) par un trouble du sommeil
 305.90 Intoxication
-292.9 - Trouble lié non spécifié
-Troubles liés au cannabis
-Cannabis
+292.9 - Trouble lié non spécifié</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Liste_des_codes_DSM-IV</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_codes_DSM-IV</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Troubles liés à une substance</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Troubles liés au cannabis</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>Cannabis
 305.20 Abus
 304.30 Dépendance (en)
 292.89 - Induit(e) par un trouble anxieux
@@ -758,9 +1297,43 @@
 292.12 - Induit(e) par un trouble psychotique, avec hallucinations
 292.89 Intoxication
 292.81 Delirium dû à une intoxication
-292.9 - Trouble lié non spécifié
-Troubles liés à la cocaïne
-Cocaïne
+292.9 - Trouble lié non spécifié</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Liste_des_codes_DSM-IV</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_codes_DSM-IV</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Troubles liés à une substance</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Troubles liés à la cocaïne</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr"/>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>Cocaïne
 305.60 Abus
 304.20 Dépendance
 292.89 - Induit(e) par un trouble anxieux
@@ -772,9 +1345,43 @@
 292.89 - Intoxication
 292.81 Delirium dû à une intoxication
 292.9 Trouble lié non spécifié
-292.0 - Sevrage
-Troubles liés aux hallucinogènes
-Hallucinogènes
+292.0 - Sevrage</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Liste_des_codes_DSM-IV</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_codes_DSM-IV</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Troubles liés à une substance</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Troubles liés aux hallucinogènes</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr"/>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>Hallucinogènes
 305.30 Abus
 304.50 Dépendance
 292.89 - Induit(e) par un trouble anxieux
@@ -784,9 +1391,43 @@
 292.89 - Intoxication
 292.81 - Delirium dû à une intoxication
 292.89 Trouble de la perception persistant
-292.9 Trouble lié non spécifié
-Troubles liés aux solvants volatils
-Solvants volatils
+292.9 Trouble lié non spécifié</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Liste_des_codes_DSM-IV</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_codes_DSM-IV</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Troubles liés à une substance</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Troubles liés aux solvants volatils</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr"/>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>Solvants volatils
 305.90 Abus
 304.60 Dépendance
 292.89 - Induit(e) par un trouble anxieux
@@ -796,14 +1437,82 @@
 292.12 - Induit(e) par un trouble psychotique, avec hallucinations
 292.89 Intoxication
 292.81 Delirium dû à une intoxication
-292.9 - Trouble lié non spécifié
-Troubles liés à la nicotine
-Nicotine
+292.9 - Trouble lié non spécifié</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Liste_des_codes_DSM-IV</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_codes_DSM-IV</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Troubles liés à une substance</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Troubles liés à la nicotine</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr"/>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>Nicotine
 305.1 Dépendance
 292.9 - Trouble lié non spécifié
-292.0 Sevrage
-Troubles liés aux opioïdes
-Opioïde
+292.0 Sevrage</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Liste_des_codes_DSM-IV</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_codes_DSM-IV</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Troubles liés à une substance</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Troubles liés aux opioïdes</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr"/>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>Opioïde
 305.50 Abus
 304.00 Dépendance
 292.84 - Induit(e) par un trouble de l'humeur
@@ -814,9 +1523,43 @@
 292.89 Intoxication
 292.81 Delirium dû à une intoxication
 292.9 - Trouble lié non spécifié
-292.0 Sevrage
-Troubles liés à phéncyclidine
-Phéncyclidine
+292.0 Sevrage</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Liste_des_codes_DSM-IV</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_codes_DSM-IV</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Troubles liés à une substance</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Troubles liés à phéncyclidine</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr"/>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Phéncyclidine
 305.90 Abus
 304.60 Dépendance
 292.89 - Induit(e) par un trouble anxieux
@@ -831,31 +1574,33 @@
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Liste_des_codes_DSM-IV</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Liste_des_codes_DSM-IV</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Liste_des_codes_DSM-IV</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_codes_DSM-IV</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
         <is>
           <t>Schizophrénie et autres troubles psychotiques</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F28" t="inlineStr"/>
+      <c r="G28" t="inlineStr"/>
+      <c r="H28" t="inlineStr">
         <is>
           <t xml:space="preserve">Schizophrénie
 295.20 Type catatonique
@@ -884,34 +1629,39 @@
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Liste_des_codes_DSM-IV</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Liste_des_codes_DSM-IV</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Liste_des_codes_DSM-IV</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_codes_DSM-IV</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
         <is>
           <t>Troubles de l'humeur</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Troubles dépressifs
-300.4 Trouble dysthymique
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Troubles dépressifs</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr"/>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>300.4 Trouble dysthymique
 Dépression majeure
 Dépression majeure, récurrente
 296.36 En rémission complète
@@ -929,9 +1679,43 @@
 296.23 Sévère sans symptômes psychotiques
 296.24 Sévère avec symptômes psychotiques
 296.20 Non spécifié
-311 Dépression majeure non spécifiée
-Troubles bipolaires
-Troubles bipolaires
+311 Dépression majeure non spécifiée</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Liste_des_codes_DSM-IV</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_codes_DSM-IV</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>Troubles de l'humeur</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Troubles bipolaires</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr"/>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Troubles bipolaires
 296.80 Trouble bipolaire non spécifié
 Trouble bipolaire I, épisode dépressif récent
 296.56 En rémission complète
@@ -977,31 +1761,33 @@
         </is>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Liste_des_codes_DSM-IV</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Liste_des_codes_DSM-IV</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Liste_des_codes_DSM-IV</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_codes_DSM-IV</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
         <is>
           <t>Troubles anxieux</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F31" t="inlineStr"/>
+      <c r="G31" t="inlineStr"/>
+      <c r="H31" t="inlineStr">
         <is>
           <t xml:space="preserve">300.02 Anxiété généralisée
 Peur panique
@@ -1022,31 +1808,33 @@
         </is>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Liste_des_codes_DSM-IV</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Liste_des_codes_DSM-IV</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Liste_des_codes_DSM-IV</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_codes_DSM-IV</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
         <is>
           <t>Troubles somatoformes</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="F32" t="inlineStr"/>
+      <c r="G32" t="inlineStr"/>
+      <c r="H32" t="inlineStr">
         <is>
           <t xml:space="preserve">300.81 Trouble de somatisation
 300.82 Trouble somatoforme indifférencié
@@ -1062,31 +1850,33 @@
         </is>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>Liste_des_codes_DSM-IV</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Liste_des_codes_DSM-IV</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Liste_des_codes_DSM-IV</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_codes_DSM-IV</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
         <is>
           <t>Troubles Factices (ou Pathomimie)</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="F33" t="inlineStr"/>
+      <c r="G33" t="inlineStr"/>
+      <c r="H33" t="inlineStr">
         <is>
           <t>Pathomimie
 300.16 Avec signes et symptômes psychologiques prédominants
@@ -1096,31 +1886,33 @@
         </is>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>Liste_des_codes_DSM-IV</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Liste_des_codes_DSM-IV</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Liste_des_codes_DSM-IV</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_codes_DSM-IV</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
         <is>
           <t>Troubles dissociatifs</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="F34" t="inlineStr"/>
+      <c r="G34" t="inlineStr"/>
+      <c r="H34" t="inlineStr">
         <is>
           <t>300.6 Dépersonnalisation
 300.12 Amnésie dissociative
@@ -1129,34 +1921,39 @@
         </is>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>Liste_des_codes_DSM-IV</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Liste_des_codes_DSM-IV</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Liste_des_codes_DSM-IV</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_codes_DSM-IV</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
         <is>
           <t>Dysfonctions sexuelles et troubles de l'identité sexuelle</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>Dysfonctions sexuelles
-625.8 - chez la femme
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>Dysfonctions sexuelles</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr"/>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>625.8 - chez la femme
 608.89 - chez l'homme
 302.71 Baisse du désir sexuel
 302.79 Aversion sexuelle
@@ -1171,9 +1968,43 @@
 608.89 Trouble : baisse du désir sexuel chez l'homme due à... [Indiquer l'affection médicale générale]
 306.51 Vaginisme (non liée à une condition médicale générale)
 625.8 Trouble : baisse du désir sexuel chez la femme due à... [Indiquer l'affection médicale générale]
-608.89 Autre dysfonction sexuelle chez l'homme due à... [Indiquer l'affection médicale générale]
-Déviations de l'excitation sexuelle
-302.4 Exhibitionnisme
+608.89 Autre dysfonction sexuelle chez l'homme due à... [Indiquer l'affection médicale générale]</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Liste_des_codes_DSM-IV</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_codes_DSM-IV</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>Dysfonctions sexuelles et troubles de l'identité sexuelle</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>Déviations de l'excitation sexuelle</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr"/>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>302.4 Exhibitionnisme
 302.81 Fétichisme
 302.89 Frotteurisme
 302.2 Pédophilie
@@ -1181,9 +2012,43 @@
 302.84 Sadisme sexuel
 302.3 Travestissement fétichiste
 302.82 Voyeurisme
-302.9 Paraphilie non spécifiée
-Trouble de l'identité sexuelle
-Trouble de l'identité sexuelle
+302.9 Paraphilie non spécifiée</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Liste_des_codes_DSM-IV</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_codes_DSM-IV</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>Dysfonctions sexuelles et troubles de l'identité sexuelle</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>Trouble de l'identité sexuelle</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr"/>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>Trouble de l'identité sexuelle
 302.85 - chez l'adolescent ou l'adulte
 302.6 - chez l'enfant
 302.6 Trouble de l'identité sexuelle non spécifié
@@ -1191,31 +2056,33 @@
         </is>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>Liste_des_codes_DSM-IV</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Liste_des_codes_DSM-IV</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Liste_des_codes_DSM-IV</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_codes_DSM-IV</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
         <is>
           <t>Troubles des conduites alimentaires</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="F38" t="inlineStr"/>
+      <c r="G38" t="inlineStr"/>
+      <c r="H38" t="inlineStr">
         <is>
           <t xml:space="preserve">307.1 Anorexie mentale
 307.51 Boulimie
@@ -1225,34 +2092,39 @@
         </is>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>Liste_des_codes_DSM-IV</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Liste_des_codes_DSM-IV</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Liste_des_codes_DSM-IV</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_codes_DSM-IV</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
         <is>
           <t>Troubles du sommeil</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>Troubles primaires du sommeil - Dyssomnie
-307.42 Insomnie primaire
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>Troubles primaires du sommeil - Dyssomnie</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr"/>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>307.42 Insomnie primaire
 307.44 Hypersomnie primaire
 347 Narcolepsie
 780.59 Trouble du sommeil lié à la respiration
@@ -1261,17 +2133,119 @@
 Type changement de fuseaux horaires
 Typetravail posté
 Type non spécifié
-307.47 Dyssomnie non spécifiée
-Parasomnies
-307.47 Cauchemars
+307.47 Dyssomnie non spécifiée</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Liste_des_codes_DSM-IV</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_codes_DSM-IV</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>Troubles du sommeil</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>Parasomnies</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr"/>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>307.47 Cauchemars
 307.46 Terreur nocturne
 307.46 Somnambulisme
-307.47 Parasomnie non spécifiée
-Troubles du sommeil liés à un autre trouble mental
-307.42 Insomnie liée à... [Indiquer le Trouble]
-307.44 Hypersomnie liée à... [Indiquer le Trouble]
-Autres troubles du sommeil
-780.xx Trouble du sommeil dû à... [indiquer une condition médicale générale]
+307.47 Parasomnie non spécifiée</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Liste_des_codes_DSM-IV</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_codes_DSM-IV</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>Troubles du sommeil</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>Troubles du sommeil liés à un autre trouble mental</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr"/>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>307.42 Insomnie liée à... [Indiquer le Trouble]
+307.44 Hypersomnie liée à... [Indiquer le Trouble]</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Liste_des_codes_DSM-IV</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_codes_DSM-IV</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>Troubles du sommeil</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>Autres troubles du sommeil</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr"/>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>780.xx Trouble du sommeil dû à... [indiquer une condition médicale générale]
 780.52 Type insomnie
 780.54 Type hypersomnie
 780.59 Type parasomnie
@@ -1284,31 +2258,33 @@
         </is>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>Liste_des_codes_DSM-IV</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Liste_des_codes_DSM-IV</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Liste_des_codes_DSM-IV</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_codes_DSM-IV</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
         <is>
           <t>Trouble du contrôle des impulsions non spécifié</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="F43" t="inlineStr"/>
+      <c r="G43" t="inlineStr"/>
+      <c r="H43" t="inlineStr">
         <is>
           <t>312.34 Trouble explosif intermittent
 312.32 Kleptomanie
@@ -1319,31 +2295,33 @@
         </is>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>Liste_des_codes_DSM-IV</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Liste_des_codes_DSM-IV</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Liste_des_codes_DSM-IV</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_codes_DSM-IV</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
         <is>
           <t>Troubles de l'adaptation</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="F44" t="inlineStr"/>
+      <c r="G44" t="inlineStr"/>
+      <c r="H44" t="inlineStr">
         <is>
           <t>Trouble de l'adaptation
 309.0 Avec humeur dépressive
@@ -1355,31 +2333,33 @@
         </is>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>Liste_des_codes_DSM-IV</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Liste_des_codes_DSM-IV</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Liste_des_codes_DSM-IV</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_codes_DSM-IV</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
         <is>
           <t>Traits de personnalité inadaptés</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="F45" t="inlineStr"/>
+      <c r="G45" t="inlineStr"/>
+      <c r="H45" t="inlineStr">
         <is>
           <t xml:space="preserve">Groupe A
 301.0 Trouble de la personnalité paranoïaque
@@ -1400,39 +2380,78 @@
         </is>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>Liste_des_codes_DSM-IV</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Liste_des_codes_DSM-IV</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Liste_des_codes_DSM-IV</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_codes_DSM-IV</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
         <is>
           <t>Autres situations qui peuvent faire l'objet d'un examen clinique</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>Facteurs psychologiques influençant une affection médicale
-V61.20 Problème relationnel parent-enfant
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>Facteurs psychologiques influençant une affection médicale</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr"/>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>V61.20 Problème relationnel parent-enfant
 V61.10 Problème relationnel avec le partenaire
 V61.8 Problème relationnel dans la fratrie
-V62.81 Problème relationnel non spécifié
-Problèmes liés à l'abus ou la négligence
-V61.21 Abus physique d'un enfant
+V62.81 Problème relationnel non spécifié</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Liste_des_codes_DSM-IV</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_codes_DSM-IV</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>Autres situations qui peuvent faire l'objet d'un examen clinique</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>Problèmes liés à l'abus ou la négligence</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr"/>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>V61.21 Abus physique d'un enfant
 995.54 Le motif d'examen concerne la victime
 V61.21 Abus sexuel d'un enfant
 995.53 Le motif d'examen concerne la victime
@@ -1444,9 +2463,43 @@
 995.81 Le motif d'examen concerne la victime
 V61.12 Abus sexuel d'un adulte par le partenaire
 V62.83 Abus sexuel d'un adulte par une autre personne que le partenaire
-995.81 Le motif d'examen concerne la victime
-Situation supplémentaires qui peuvent faire l'objet d'un examen clinique
-V15.81 Non-observance du traitement
+995.81 Le motif d'examen concerne la victime</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Liste_des_codes_DSM-IV</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_codes_DSM-IV</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>Autres situations qui peuvent faire l'objet d'un examen clinique</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>Situation supplémentaires qui peuvent faire l'objet d'un examen clinique</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr"/>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>V15.81 Non-observance du traitement
 V65.2 Simulation
 V71.01 Comportement antisocial de l'adulte
 V71.02 Comportement antisocial de l'enfant ou de l'adolescent
